--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,57 +46,63 @@
     <t>killed</t>
   </si>
   <si>
+    <t>complaints</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>uncertainty</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>die</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -106,34 +112,43 @@
     <t>shortage</t>
   </si>
   <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
+    <t>nice</t>
   </si>
   <si>
     <t>happy</t>
@@ -154,148 +169,136 @@
     <t>heroes</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>safe</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>give</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>buy</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -656,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,10 +667,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -746,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -767,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -796,16 +799,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -817,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -825,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -843,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -875,13 +878,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.76</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -893,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -917,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -925,13 +928,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -943,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -967,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -975,13 +978,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7307692307692307</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -993,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>0.8536585365853658</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1017,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1025,13 +1028,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6986301369863014</v>
+        <v>0.702054794520548</v>
       </c>
       <c r="C9">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D9">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1043,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1067,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1075,13 +1078,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6896551724137931</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1093,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.828125</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1117,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1125,13 +1128,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1143,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1167,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1175,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5789473684210527</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1193,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1217,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1225,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5652173913043478</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1243,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1267,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1275,13 +1278,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4838709677419355</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1293,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0.7746478873239436</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L14">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1317,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1325,13 +1328,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4358974358974359</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1343,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.7727272727272727</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1367,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1375,13 +1378,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4358974358974359</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1393,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.7583333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L16">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M16">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1417,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1446,16 +1449,16 @@
         <v>43</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.7450980392156863</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1467,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1496,7 +1499,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K18">
         <v>0.7358490566037735</v>
@@ -1546,7 +1549,7 @@
         <v>23</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K19">
         <v>0.7301587301587301</v>
@@ -1575,13 +1578,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3529411764705883</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1593,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>0.71875</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1617,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1625,13 +1628,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.348993288590604</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C21">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D21">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1643,19 +1646,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1667,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1675,13 +1678,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3430232558139535</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C22">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1693,19 +1696,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>339</v>
+        <v>23</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K22">
-        <v>0.6702127659574468</v>
+        <v>0.7</v>
       </c>
       <c r="L22">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="M22">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1717,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1725,13 +1728,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2751322751322751</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C23">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1743,19 +1746,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K23">
-        <v>0.6296296296296297</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1767,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1775,13 +1778,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2711864406779661</v>
+        <v>0.3313953488372093</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1793,19 +1796,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>43</v>
+        <v>345</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>0.6292428198433421</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L24">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1817,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>142</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1825,13 +1828,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2597402597402597</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1843,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K25">
-        <v>0.625</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1867,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1875,13 +1878,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.225</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1893,10 +1896,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K26">
         <v>0.6176470588235294</v>
@@ -1925,13 +1928,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2203389830508475</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1943,19 +1946,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K27">
-        <v>0.6086956521739131</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1967,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1975,13 +1978,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1825396825396825</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C28">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1993,19 +1996,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K28">
-        <v>0.58</v>
+        <v>0.6031331592689295</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2017,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2025,13 +2028,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1777777777777778</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2043,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K29">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2067,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2075,193 +2078,265 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1018766756032172</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>67</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30">
+        <v>0.58</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>29</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.175</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>66</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="L31">
+        <v>13</v>
+      </c>
+      <c r="M31">
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="C32">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>208</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="L32">
+        <v>190</v>
+      </c>
+      <c r="M32">
+        <v>190</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D30">
-        <v>38</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>335</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K30">
-        <v>0.5676470588235294</v>
-      </c>
-      <c r="L30">
-        <v>193</v>
-      </c>
-      <c r="M30">
-        <v>193</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31">
-        <v>0.5581395348837209</v>
-      </c>
-      <c r="L31">
-        <v>24</v>
-      </c>
-      <c r="M31">
-        <v>24</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32">
+      <c r="B33">
+        <v>0.1126005361930295</v>
+      </c>
+      <c r="C33">
+        <v>42</v>
+      </c>
+      <c r="D33">
+        <v>42</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>331</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33">
         <v>0.5555555555555556</v>
       </c>
-      <c r="L32">
+      <c r="L33">
+        <v>25</v>
+      </c>
+      <c r="M33">
+        <v>25</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>20</v>
       </c>
-      <c r="M32">
+    </row>
+    <row r="34" spans="1:17">
+      <c r="J34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34">
+        <v>0.5220338983050847</v>
+      </c>
+      <c r="L34">
+        <v>154</v>
+      </c>
+      <c r="M34">
+        <v>154</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="L35">
+        <v>46</v>
+      </c>
+      <c r="M35">
+        <v>46</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36">
+        <v>0.5</v>
+      </c>
+      <c r="L36">
         <v>20</v>
       </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K33">
-        <v>0.5393258426966292</v>
-      </c>
-      <c r="L33">
-        <v>48</v>
-      </c>
-      <c r="M33">
-        <v>48</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K34">
-        <v>0.5254237288135594</v>
-      </c>
-      <c r="L34">
-        <v>155</v>
-      </c>
-      <c r="M34">
-        <v>155</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35">
-        <v>0.4811715481171548</v>
-      </c>
-      <c r="L35">
-        <v>115</v>
-      </c>
-      <c r="M35">
-        <v>115</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K36">
-        <v>0.4769230769230769</v>
-      </c>
-      <c r="L36">
-        <v>31</v>
-      </c>
       <c r="M36">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2273,21 +2348,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K37">
-        <v>0.45</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2302,18 +2377,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="10:17">
+    <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K38">
-        <v>0.4444444444444444</v>
+        <v>0.4560669456066946</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2325,21 +2400,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K39">
-        <v>0.4383561643835616</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2351,21 +2426,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K40">
-        <v>0.4375</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2377,21 +2452,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K41">
         <v>0.3846153846153846</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2403,21 +2478,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K42">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2429,21 +2504,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K43">
-        <v>0.3285714285714286</v>
+        <v>0.375</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2455,21 +2530,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K44">
-        <v>0.2978723404255319</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2481,21 +2556,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K45">
-        <v>0.2542372881355932</v>
+        <v>0.2714285714285714</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2507,21 +2582,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K46">
-        <v>0.2295081967213115</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2533,21 +2608,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K47">
-        <v>0.1124401913875598</v>
+        <v>0.09808612440191387</v>
       </c>
       <c r="L47">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M47">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2559,21 +2634,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K48">
-        <v>0.1102362204724409</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2585,47 +2660,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>113</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K49">
-        <v>0.1076923076923077</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N49">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>116</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K50">
-        <v>0.0889423076923077</v>
+        <v>0.06375838926174497</v>
       </c>
       <c r="L50">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M50">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2637,266 +2712,214 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>379</v>
+        <v>837</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K51">
-        <v>0.07441860465116279</v>
+        <v>0.0460122699386503</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M51">
         <v>16</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>199</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K52">
-        <v>0.07009345794392523</v>
+        <v>0.04328523862375139</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N52">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>199</v>
+        <v>862</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K53">
-        <v>0.06040268456375839</v>
+        <v>0.03082671648762261</v>
       </c>
       <c r="L53">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M53">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>840</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K54">
-        <v>0.04555555555555556</v>
+        <v>0.03081664098613251</v>
       </c>
       <c r="L54">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N54">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O54">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>859</v>
+        <v>629</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K55">
-        <v>0.03235747303543914</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N55">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="O55">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>628</v>
+        <v>948</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K56">
-        <v>0.03121387283236994</v>
+        <v>0.01614763552479815</v>
       </c>
       <c r="L56">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N56">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>838</v>
+        <v>853</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K57">
-        <v>0.02570093457943925</v>
+        <v>0.01194318915429309</v>
       </c>
       <c r="L57">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="M57">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="N57">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="O57">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>2085</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K58">
-        <v>0.01514663229133097</v>
+        <v>0.005322479649342517</v>
       </c>
       <c r="L58">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="N58">
-        <v>0.92</v>
+        <v>0.71</v>
       </c>
       <c r="O58">
-        <v>0.07999999999999996</v>
+        <v>0.29</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>3056</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K59">
-        <v>0.0134297520661157</v>
-      </c>
-      <c r="L59">
-        <v>13</v>
-      </c>
-      <c r="M59">
-        <v>13</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K60">
-        <v>0.005010961478233636</v>
-      </c>
-      <c r="L60">
-        <v>16</v>
-      </c>
-      <c r="M60">
-        <v>24</v>
-      </c>
-      <c r="N60">
-        <v>0.67</v>
-      </c>
-      <c r="O60">
-        <v>0.33</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
         <v>3177</v>
       </c>
     </row>
